--- a/Config/Rules.xlsx
+++ b/Config/Rules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\2024-04-16-Barbarian Prince\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\BarbarianPrince2\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76BC45EB-95CD-4C83-8CDB-C921F21C9347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1329106-34AF-48C9-9679-0F8EA1010A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="432">
   <si>
     <t>r203</t>
   </si>
@@ -3882,6 +3882,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>.gif' Height='220' Width='480'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>r107</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;r107 Falcon Scout&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;At the evening meal each day, if you offer the falcon a food unit, roll the die. If you roll anyhing other than a six, the falcon will remain throughout tomorrow with your party as a guide.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                        &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Falcon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='188' Width='250'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
 </sst>
@@ -4256,10 +4287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B215"/>
+  <dimension ref="A1:B216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4404,1593 +4435,1601 @@
         <v>429</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="375" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>388</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="63" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="66" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="69" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="77" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="78" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="80" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="81" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="82" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="83" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="84" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+    <row r="90" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+    <row r="91" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+    <row r="94" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+    <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+    <row r="98" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+    <row r="101" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="102" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+    <row r="103" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="104" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+    <row r="105" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+    <row r="109" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+    <row r="110" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+    <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="112" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="113" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="114" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+    <row r="115" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="116" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="117" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+    <row r="118" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+    <row r="120" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+    <row r="121" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B171" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+    <row r="172" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>404</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+    <row r="189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B191" s="1" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B193" s="1" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
+    <row r="197" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
+    <row r="198" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
+    <row r="199" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
+    <row r="202" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B202" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
+    <row r="203" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
+    <row r="204" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
+    <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
+    <row r="206" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
+    <row r="207" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
+    <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
+    <row r="209" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+    <row r="210" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+    <row r="211" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
+    <row r="216" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>206</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:B215">
-    <sortCondition ref="A41:A215"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A42:B216">
+    <sortCondition ref="A42:A216"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Rules.xlsx
+++ b/Config/Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstewa01\Documents\Visual Studio 2022\Projects\BarbarianPrince2\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1329106-34AF-48C9-9679-0F8EA1010A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F57A25B-246E-4855-ACC3-D05182E64D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
   <si>
     <t>r203</t>
   </si>
@@ -3913,6 +3913,38 @@
         <scheme val="minor"/>
       </rPr>
       <t>.gif' Height='188' Width='250'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>r109</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;r109 Wild Pegasus&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter a wild Pegasus. Each character in your party is allowed one attempt to capture it.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Roll one die. If the result is 5 plus, the character captures the Pegasus. You may add it as a winged mount to your party.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                                 &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pegasus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
 </sst>
@@ -3991,9 +4023,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4031,7 +4063,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4137,7 +4169,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4279,7 +4311,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4287,7 +4319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B216"/>
+  <dimension ref="A1:B217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
@@ -4443,1593 +4475,1601 @@
         <v>431</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="375" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>388</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="63" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="66" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="67" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="70" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="79" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="81" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="82" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="83" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="84" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="85" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="86" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+    <row r="92" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+    <row r="95" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+    <row r="98" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+    <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="102" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+    <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="104" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+    <row r="105" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+    <row r="106" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+    <row r="111" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="113" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="114" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+    <row r="115" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="116" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="117" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+    <row r="118" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+    <row r="119" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+    <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+    <row r="121" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+    <row r="122" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+    <row r="173" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>404</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
+    <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
+    <row r="198" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
+    <row r="199" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
+    <row r="200" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B202" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
+    <row r="203" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
+    <row r="204" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
+    <row r="205" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
+    <row r="206" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
+    <row r="207" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
+    <row r="208" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
+    <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+    <row r="210" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+    <row r="211" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
+    <row r="212" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
+    <row r="217" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>206</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A42:B216">
-    <sortCondition ref="A42:A216"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:B217">
+    <sortCondition ref="A43:A217"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Rules.xlsx
+++ b/Config/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F57A25B-246E-4855-ACC3-D05182E64D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CEEB4E-93CF-4B91-BB84-30F65CFA7609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="345" yWindow="1845" windowWidth="21600" windowHeight="11295" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="436">
   <si>
     <t>r203</t>
   </si>
@@ -3947,12 +3947,45 @@
       <t>.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
   </si>
+  <si>
+    <t>r111</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Bold&gt;r111 Storm Demon Attacks&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You encounter a powerful demon of storms which attacks your party. Since you have no magicians, wizards, witches, priests, or monks in your party, it cannot be repeled. 
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You are unable to block the attack, and your entire party is blown away to be lost or killed. Your winged mount is killed, but your carried wealth and possessions are intact. The rest of your party is lost.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;You crash in an adjacent hex. Roll one die for the number of wounds suffered.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;
+                              &lt;InlineUIContainer&gt;&lt;Image Source='../../Images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StormDemon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3969,6 +4002,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4319,10 +4359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
-  <dimension ref="A1:B217"/>
+  <dimension ref="A1:B218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4483,1593 +4523,1601 @@
         <v>433</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="375" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>388</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="63" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="66" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="67" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="68" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="76" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="80" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="82" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="83" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="84" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="85" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="86" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+    <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+    <row r="92" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+    <row r="93" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+    <row r="96" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+    <row r="99" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+    <row r="100" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+    <row r="103" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="104" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+    <row r="105" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+    <row r="106" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+    <row r="107" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+    <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="112" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="114" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+    <row r="115" spans="1:2" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="116" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="117" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+    <row r="118" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+    <row r="119" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+    <row r="120" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+    <row r="122" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+    <row r="123" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
+    <row r="174" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>404</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
+    <row r="191" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B191" s="1" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B193" s="1" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
+    <row r="199" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
+    <row r="200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
+    <row r="201" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
+    <row r="204" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
+    <row r="205" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="150" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
+    <row r="206" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
+    <row r="207" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
+    <row r="208" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
+    <row r="209" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+    <row r="210" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+    <row r="211" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
+    <row r="212" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
+    <row r="213" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
+    <row r="218" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>206</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:B217">
-    <sortCondition ref="A43:A217"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A44:B218">
+    <sortCondition ref="A44:A218"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Rules.xlsx
+++ b/Config/Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstew\source\repos\happysulla\BarbarianPrince\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CEEB4E-93CF-4B91-BB84-30F65CFA7609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5D6315-C9EB-428A-96A2-25FA7FB7FEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1845" windowWidth="21600" windowHeight="11295" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89590866-6083-4176-8CBF-8C95C9BA24C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="1" r:id="rId1"/>
@@ -3431,14 +3431,6 @@
     </r>
   </si>
   <si>
-    <t>&lt;Bold&gt;r281 Special Travel Reference&lt;/Bold&gt;
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Refer to the Travel Table
- &lt;InlineUIContainer&gt;&lt;Button Content='t207' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
- and roll one die.
-&lt;LineBreak/&gt;&lt;LineBreak/&gt;Using the appropriate line for the terrain type you occupy, read across to the Event References column and use the column listed for that die roll. This will produce a Travel Event Reference
-specified in the table.</t>
-  </si>
-  <si>
     <t>&lt;Bold&gt;r213 Rafting the Rivers&lt;/Bold&gt;
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;You have the special option of using raft travel along the river instead of normal travel each day. When raft travel is available, you ride the raft until you get off by selecting a daily action other than raft travel; or when you roll 12 with two die after each day's travel. The latter represents the raft reaching a stopping point for lengthy loading, unloading, or dismantling.
 &lt;LineBreak/&gt;&lt;LineBreak/&gt;While on a raft, you travel on the river hexsides themselves. Your speed is either three hexsides per day downriver, or two hexsides per day upriver. 
@@ -3979,6 +3971,13 @@
       </rPr>
       <t>.gif' Height='300' Width='300'&gt;&lt;/Image&gt;&lt;/InlineUIContainer&gt;</t>
     </r>
+  </si>
+  <si>
+    <t>&lt;Bold&gt;r281 Special Travel Reference&lt;/Bold&gt;
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Refer to the Travel Table
+ &lt;InlineUIContainer&gt;&lt;Button Content='t207' FontFamily='Courier New'  FontSize='12'&gt;&lt;/Button&gt;&lt;/InlineUIContainer&gt;
+ and roll one die.
+&lt;LineBreak/&gt;&lt;LineBreak/&gt;Using the appropriate line for the terrain type you occupy, read across to the Event References column and use the column listed for that die roll. This will produce a Travel Event Reference specified in the table.</t>
   </si>
 </sst>
 </file>
@@ -4361,8 +4360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7370C4-35CC-4CF6-93A4-4A91468DAED0}">
   <dimension ref="A1:B218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4397,10 +4396,10 @@
     </row>
     <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="240" x14ac:dyDescent="0.25">
@@ -4413,10 +4412,10 @@
     </row>
     <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4461,18 +4460,18 @@
     </row>
     <row r="12" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4501,34 +4500,34 @@
     </row>
     <row r="17" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -4541,50 +4540,50 @@
     </row>
     <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -4840,7 +4839,7 @@
         <v>24</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -4880,7 +4879,7 @@
         <v>29</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -5040,7 +5039,7 @@
         <v>51</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -5755,12 +5754,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>404</v>
+        <v>435</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="45" x14ac:dyDescent="0.25">
